--- a/Data/IBACH/MAY24/aux_files/metafiles/ibach_meta_YFRM_MAY24_PTES_V01.xlsx
+++ b/Data/IBACH/MAY24/aux_files/metafiles/ibach_meta_YFRM_MAY24_PTES_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data\Products\iBACH\2024_05\docs\manual\BPLIM\_freeze\Github\MAY24\aux_files\metafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data\Products\iBACH\2024_05\docs\manual\BPLIM\aux_files\metafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F60270-CA39-43AC-AFFC-8E3F40E53F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E4332-4C02-4388-8F08-243B34619B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="922">
   <si>
     <t>Features</t>
   </si>
@@ -2496,12 +2496,6 @@
     <t>Other receivables</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Non-current</t>
-  </si>
-  <si>
     <t>Deferred assets</t>
   </si>
   <si>
@@ -2791,6 +2785,30 @@
   </si>
   <si>
     <t>"Programmed by BPLIM on 28 May 2024"</t>
+  </si>
+  <si>
+    <t>Other receivables - Current</t>
+  </si>
+  <si>
+    <t>Bonds and similar obligations - Current</t>
+  </si>
+  <si>
+    <t>Bonds and similar obligations - Non-current</t>
+  </si>
+  <si>
+    <t>Amounts owed to credit institutions - Current</t>
+  </si>
+  <si>
+    <t>Amounts owed to credit institutions - Non-current</t>
+  </si>
+  <si>
+    <t>Other financial creditors - Current</t>
+  </si>
+  <si>
+    <t>Other financial creditors - Non-current</t>
+  </si>
+  <si>
+    <t>Other non-financial creditors - Current</t>
   </si>
 </sst>
 </file>
@@ -3178,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3186,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3194,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3210,7 +3228,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3250,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3258,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3347,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3355,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3363,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -3409,19 +3427,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -3455,13 +3473,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
@@ -3504,7 +3522,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3527,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3550,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -3625,7 +3643,7 @@
         <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
@@ -3740,7 +3758,7 @@
         <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E16" t="s">
         <v>102</v>
@@ -3763,7 +3781,7 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E17" t="s">
         <v>102</v>
@@ -3786,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E18" t="s">
         <v>102</v>
@@ -3809,7 +3827,7 @@
         <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -3832,7 +3850,7 @@
         <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E20" t="s">
         <v>102</v>
@@ -3855,7 +3873,7 @@
         <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -3878,7 +3896,7 @@
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
@@ -3901,7 +3919,7 @@
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E23" t="s">
         <v>102</v>
@@ -3924,7 +3942,7 @@
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E24" t="s">
         <v>102</v>
@@ -3947,7 +3965,7 @@
         <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
@@ -3970,7 +3988,7 @@
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E26" t="s">
         <v>102</v>
@@ -3987,13 +4005,13 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C27" t="s">
         <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E27" t="s">
         <v>102</v>
@@ -4016,7 +4034,7 @@
         <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E28" t="s">
         <v>102</v>
@@ -4033,13 +4051,13 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C29" t="s">
         <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E29" t="s">
         <v>102</v>
@@ -4062,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -4085,7 +4103,7 @@
         <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -4108,7 +4126,7 @@
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E32" t="s">
         <v>102</v>
@@ -4131,7 +4149,7 @@
         <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E33" t="s">
         <v>102</v>
@@ -4154,7 +4172,7 @@
         <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -4177,7 +4195,7 @@
         <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -4200,7 +4218,7 @@
         <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E36" t="s">
         <v>102</v>
@@ -4223,7 +4241,7 @@
         <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E37" t="s">
         <v>102</v>
@@ -4246,7 +4264,7 @@
         <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E38" t="s">
         <v>102</v>
@@ -4269,7 +4287,7 @@
         <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E39" t="s">
         <v>102</v>
@@ -4292,7 +4310,7 @@
         <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E40" t="s">
         <v>102</v>
@@ -4315,7 +4333,7 @@
         <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E41" t="s">
         <v>102</v>
@@ -4338,7 +4356,7 @@
         <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E42" t="s">
         <v>102</v>
@@ -4361,7 +4379,7 @@
         <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E43" t="s">
         <v>102</v>
@@ -4384,7 +4402,7 @@
         <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E44" t="s">
         <v>102</v>
@@ -4407,7 +4425,7 @@
         <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E45" t="s">
         <v>102</v>
@@ -4430,7 +4448,7 @@
         <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E46" t="s">
         <v>102</v>
@@ -4453,7 +4471,7 @@
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -4476,7 +4494,7 @@
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -4499,7 +4517,7 @@
         <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -4516,13 +4534,13 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C50" t="s">
         <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E50" t="s">
         <v>102</v>
@@ -4545,7 +4563,7 @@
         <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E51" t="s">
         <v>102</v>
@@ -4568,7 +4586,7 @@
         <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E52" t="s">
         <v>102</v>
@@ -4585,13 +4603,13 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>817</v>
+        <v>914</v>
       </c>
       <c r="C53" t="s">
         <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
@@ -4608,13 +4626,13 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C54" t="s">
         <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E54" t="s">
         <v>102</v>
@@ -4631,13 +4649,13 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C55" t="s">
         <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E55" t="s">
         <v>102</v>
@@ -4654,13 +4672,13 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E56" t="s">
         <v>102</v>
@@ -4677,13 +4695,13 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E57" t="s">
         <v>102</v>
@@ -4700,13 +4718,13 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C58" t="s">
         <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E58" t="s">
         <v>102</v>
@@ -4723,13 +4741,13 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C59" t="s">
         <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E59" t="s">
         <v>102</v>
@@ -4746,13 +4764,13 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C60" t="s">
         <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E60" t="s">
         <v>102</v>
@@ -4769,13 +4787,13 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C61" t="s">
         <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E61" t="s">
         <v>102</v>
@@ -4792,13 +4810,13 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C62" t="s">
         <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E62" t="s">
         <v>102</v>
@@ -4815,13 +4833,13 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C63" t="s">
         <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E63" t="s">
         <v>102</v>
@@ -4838,13 +4856,13 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E64" t="s">
         <v>102</v>
@@ -4861,13 +4879,13 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C65" t="s">
         <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E65" t="s">
         <v>102</v>
@@ -4884,13 +4902,13 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
       <c r="C66" t="s">
         <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E66" t="s">
         <v>102</v>
@@ -4907,13 +4925,13 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E67" t="s">
         <v>102</v>
@@ -4930,13 +4948,13 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E68" t="s">
         <v>102</v>
@@ -4953,13 +4971,13 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>817</v>
+        <v>917</v>
       </c>
       <c r="C69" t="s">
         <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E69" t="s">
         <v>102</v>
@@ -4976,13 +4994,13 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>818</v>
+        <v>918</v>
       </c>
       <c r="C70" t="s">
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E70" t="s">
         <v>102</v>
@@ -4999,13 +5017,13 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C71" t="s">
         <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E71" t="s">
         <v>102</v>
@@ -5022,13 +5040,13 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C72" t="s">
         <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E72" t="s">
         <v>102</v>
@@ -5045,13 +5063,13 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E73" t="s">
         <v>102</v>
@@ -5068,13 +5086,13 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E74" t="s">
         <v>102</v>
@@ -5091,13 +5109,13 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C75" t="s">
         <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E75" t="s">
         <v>102</v>
@@ -5114,13 +5132,13 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="C76" t="s">
         <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E76" t="s">
         <v>102</v>
@@ -5137,13 +5155,13 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E77" t="s">
         <v>102</v>
@@ -5160,13 +5178,13 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E78" t="s">
         <v>102</v>
@@ -5183,13 +5201,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E79" t="s">
         <v>102</v>
@@ -5206,13 +5224,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C80" t="s">
         <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E80" t="s">
         <v>102</v>
@@ -5253,7 +5271,7 @@
         <v>1053</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5261,7 +5279,7 @@
         <v>1070</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5685,7 +5703,7 @@
         <v>10999</v>
       </c>
       <c r="B56" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5893,7 +5911,7 @@
         <v>20999</v>
       </c>
       <c r="B82" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -5922,7 +5940,7 @@
         <v>620</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5930,7 +5948,7 @@
         <v>724</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -5962,7 +5980,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5970,7 +5988,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5978,7 +5996,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5986,7 +6004,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5994,7 +6012,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6002,7 +6020,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6010,7 +6028,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6018,7 +6036,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6026,7 +6044,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6034,7 +6052,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6042,7 +6060,7 @@
         <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6050,7 +6068,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6058,7 +6076,7 @@
         <v>203</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6066,7 +6084,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6074,7 +6092,7 @@
         <v>205</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6082,7 +6100,7 @@
         <v>206</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6090,7 +6108,7 @@
         <v>207</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6098,7 +6116,7 @@
         <v>208</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -6596,7 +6614,7 @@
         <v>1021</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6604,7 +6622,7 @@
         <v>1022</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6652,7 +6670,7 @@
         <v>1043</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6660,7 +6678,7 @@
         <v>1044</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6684,7 +6702,7 @@
         <v>1053</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6692,7 +6710,7 @@
         <v>1054</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8484,7 +8502,7 @@
         <v>3515</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -8492,7 +8510,7 @@
         <v>3516</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -8500,7 +8518,7 @@
         <v>3517</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -8508,7 +8526,7 @@
         <v>3518</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -8516,7 +8534,7 @@
         <v>3519</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -8644,7 +8662,7 @@
         <v>4121</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8652,7 +8670,7 @@
         <v>4122</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -9740,7 +9758,7 @@
         <v>5511</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -9748,7 +9766,7 @@
         <v>5512</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -9900,7 +9918,7 @@
         <v>5915</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -9908,7 +9926,7 @@
         <v>5916</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -9916,7 +9934,7 @@
         <v>5917</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -9924,7 +9942,7 @@
         <v>5918</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -10564,7 +10582,7 @@
         <v>8543</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -10572,7 +10590,7 @@
         <v>8544</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -10684,7 +10702,7 @@
         <v>8731</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -10692,7 +10710,7 @@
         <v>8732</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -10716,7 +10734,7 @@
         <v>8811</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -10724,7 +10742,7 @@
         <v>8812</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -10812,7 +10830,7 @@
         <v>9105</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -10820,7 +10838,7 @@
         <v>9106</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -11052,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11100,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11108,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
